--- a/resources/FeatureKey.xlsx
+++ b/resources/FeatureKey.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752213D7-485B-48A2-8192-A5346A89D7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34486377-1D05-4937-A76E-82230E33943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{B4BDDE2A-A48D-4BB9-82D5-596DACBBECDB}"/>
+    <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BDDE2A-A48D-4BB9-82D5-596DACBBECDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>

--- a/resources/FeatureKey.xlsx
+++ b/resources/FeatureKey.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34486377-1D05-4937-A76E-82230E33943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148DCE1-C3FB-4874-92A4-D4006FE421C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BDDE2A-A48D-4BB9-82D5-596DACBBECDB}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Whether or not the participant consumed alcohol (Alc or Non)</t>
   </si>
   <si>
-    <t>sub_condition</t>
-  </si>
-  <si>
     <t>A unique identifier to distinguish between multiple drinking episodes of the same participants</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">(TP + TN) / (TP + TN + FP + FN) --- rate of successful detection of either alcohol or non-alcohol episodes </t>
+  </si>
+  <si>
+    <t>Episode_Identifier</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2FF8FC-40A5-412E-912D-2E09633068CB}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +951,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
@@ -984,112 +984,112 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -1105,197 +1105,197 @@
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="34" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="35" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>4</v>
@@ -1347,167 +1347,167 @@
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/resources/FeatureKey.xlsx
+++ b/resources/FeatureKey.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148DCE1-C3FB-4874-92A4-D4006FE421C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC3878-43A0-4AD4-83DD-BBBB609A69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BDDE2A-A48D-4BB9-82D5-596DACBBECDB}"/>
   </bookViews>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">(TP + TN) / (TP + TN + FP + FN) --- rate of successful detection of either alcohol or non-alcohol episodes </t>
   </si>
   <si>
-    <t>Episode_Identifier</t>
+    <t>Dataset_Identifier</t>
   </si>
 </sst>
 </file>
